--- a/Assets/DataTables~/constantData정책.xlsx
+++ b/Assets/DataTables~/constantData정책.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C33E03D-E385-4567-AA87-EA665E45880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003B1B6-04D7-4C6D-B69A-39B547E56B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>레벨업 골드 비용 증가</t>
   </si>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t xml:space="preserve">적 처치 골드 ^2. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 레벨업 비용 초항</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -83,6 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +148,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -536,6 +546,14 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/DataTables~/constantData정책.xlsx
+++ b/Assets/DataTables~/constantData정책.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003B1B6-04D7-4C6D-B69A-39B547E56B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624EE5E6-984C-4FFB-8C0C-D94E020F5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>레벨업 골드 비용 증가</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>영웅 레벨업 비용 초항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 스테이지까지 골드를 다 분배해야 간신히 깰 정도의 가격으로 설정. 탭을 하거나 패배 후 골드를 축적하면 첫 환생 쉬움.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환생 스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환생재화 개수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,7 +162,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,9 +491,10 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -491,8 +504,14 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -503,8 +522,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -514,8 +536,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -526,8 +551,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -538,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -546,12 +574,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTables~/constantData정책.xlsx
+++ b/Assets/DataTables~/constantData정책.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624EE5E6-984C-4FFB-8C0C-D94E020F5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B068F3-4B35-49A5-8944-01B449DEBD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>레벨업 골드 비용 증가</t>
   </si>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>환생재화 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 강화 비용 증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -99,8 +103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +168,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,8 +578,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.1</v>
+      <c r="C7" s="4">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -583,6 +591,14 @@
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTables~/constantData정책.xlsx
+++ b/Assets/DataTables~/constantData정책.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B068F3-4B35-49A5-8944-01B449DEBD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37E4BB-4848-4C54-AB15-D774AA2E542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>레벨업 골드 비용 증가</t>
   </si>
@@ -96,6 +96,42 @@
   </si>
   <si>
     <t>영웅 강화 비용 증가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 유물 효과 증가율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 유물 효과 증가율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 유물 비용 증가율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 유물 비용 증가율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 신규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과수치 %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 유물 효과 초항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 변경. 1% -&gt; 2.5%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,6 +207,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -502,7 +541,7 @@
     <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -512,14 +551,20 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -530,11 +575,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -544,11 +589,18 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
       <c r="F4">
+        <f>1*((1+C4)^E4-1)/(C4)</f>
+        <v>5.866600960000004</v>
+      </c>
+      <c r="H4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -559,11 +611,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -574,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -582,7 +634,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -593,12 +645,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f>2.5*((1+C11)^E11-1)/(C11)</f>
+        <v>160.00624860645425</v>
+      </c>
+      <c r="G11">
+        <f>F11/21</f>
+        <v>7.6193451717359171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>113</v>
+      </c>
+      <c r="F12">
+        <f>5*((1+C12)^E12-1)/(C12)</f>
+        <v>1039.1652220438382</v>
+      </c>
+      <c r="G12">
+        <f>F12/565</f>
+        <v>1.839230481493519</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTables~/constantData정책.xlsx
+++ b/Assets/DataTables~/constantData정책.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A37E4BB-4848-4C54-AB15-D774AA2E542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5FF478-49E7-4C77-BE64-6C8681C0DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
+    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,21 +669,21 @@
         <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <f>2.5*((1+C11)^E11-1)/(C11)</f>
-        <v>160.00624860645425</v>
+        <v>344.07909503618657</v>
       </c>
       <c r="G11">
         <f>F11/21</f>
-        <v>7.6193451717359171</v>
+        <v>16.38471881124698</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="4">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -701,11 +701,11 @@
       </c>
       <c r="F12">
         <f>5*((1+C12)^E12-1)/(C12)</f>
-        <v>1039.1652220438382</v>
+        <v>1459.5066100163674</v>
       </c>
       <c r="G12">
         <f>F12/565</f>
-        <v>1.839230481493519</v>
+        <v>2.5831975398519775</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
